--- a/CNO_16122023_D_report.xlsx
+++ b/CNO_16122023_D_report.xlsx
@@ -445,12 +445,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>АБРАМОВА Анастасия/Семенов</t>
+          <t>АБРАМОВА Анастасия</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ЧЕТВЕРТАКОВА Виктория/Нижний Новгород</t>
+          <t>ЧЕТВЕРТАКОВА Виктория</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -462,12 +462,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>АБРАМОВА Анастасия/Семенов</t>
+          <t>АБРАМОВА Анастасия</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>КОЛОСОВА Мария/Нижний Новгород</t>
+          <t>КОЛОСОВА Мария</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -479,12 +479,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>АБРАМОВА Анастасия/Семенов</t>
+          <t>АБРАМОВА Анастасия</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ХРУЛЕВА Ксения/Нижний Новгород</t>
+          <t>ХРУЛЕВА Ксения</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -496,12 +496,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>БАХТИНА Анна/Нижний Новгород</t>
+          <t>БАХТИНА Анна</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>КУРИЦЫНА Арина/Сергач</t>
+          <t>КУРИЦЫНА Арина</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -513,12 +513,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>БЕЛЯЕВА Валерия/Сергач</t>
+          <t>БЕЛЯЕВА Валерия</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ЧЕТВЕРТАКОВА Виктория/Нижний Новгород</t>
+          <t>ЧЕТВЕРТАКОВА Виктория</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -530,12 +530,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>БОГОМОЛОВА Любовь/Нижний Новгород</t>
+          <t>БОГОМОЛОВА Любовь</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>САЛМОВА Полина/Нижний Новгород</t>
+          <t>САЛМОВА Полина</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -547,12 +547,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>БОГОМОЛОВА Любовь/Нижний Новгород</t>
+          <t>БОГОМОЛОВА Любовь</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ШМИДТ Алена/Нижний Новгород</t>
+          <t>ШМИДТ Алена</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -564,12 +564,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>БОРИСОВА Екатерина/Нижний Новгород</t>
+          <t>БОРИСОВА Екатерина</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ЖИХАРЕВА Дарья/Нижний Новгород</t>
+          <t>ЖИХАРЕВА Дарья</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -581,12 +581,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>БОРИСОВА Екатерина/Нижний Новгород</t>
+          <t>БОРИСОВА Екатерина</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>БУРОВА Маргарита/Нижний Новгород</t>
+          <t>БУРОВА Маргарита</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -598,12 +598,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>БУЗИХИНА Варвара/Нижний Новгород</t>
+          <t>БУЗИХИНА Варвара</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ШУСТОВА Анастасия/Нижний Новгород</t>
+          <t>ШУСТОВА Анастасия</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -615,12 +615,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>БУЗИХИНА Варвара/Нижний Новгород</t>
+          <t>БУЗИХИНА Варвара</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>МАРКОВА Анна/Нижний Новгород</t>
+          <t>МАРКОВА Анна</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -632,12 +632,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>БУЗИХИНА Варвара/Нижний Новгород</t>
+          <t>БУЗИХИНА Варвара</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>МАСЛОВА Дана/Нижний Новгород</t>
+          <t>МАСЛОВА Дана</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -649,12 +649,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>БУРОВА Маргарита/Нижний Новгород</t>
+          <t>БУРОВА Маргарита</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ЛЯМКИНА Мария/Нижний Новгород</t>
+          <t>ЛЯМКИНА Мария</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -666,12 +666,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>БУРОВА Маргарита/Нижний Новгород</t>
+          <t>БУРОВА Маргарита</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ВАКИНА Мария/Нижний Новгород</t>
+          <t>ВАКИНА Мария</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -683,12 +683,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ВАКИНА Мария/Нижний Новгород</t>
+          <t>ВАКИНА Мария</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ДЕГТЯРЕВА Анна/Нижний Новгород</t>
+          <t>ДЕГТЯРЕВА Анна</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -700,12 +700,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ВОРОБЬЕВА Дарья/Нижний Новгород</t>
+          <t>ВОРОБЬЕВА Дарья</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ЖИХАРЕВА Дарья/Нижний Новгород</t>
+          <t>ЖИХАРЕВА Дарья</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -717,12 +717,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ВОРОБЬЕВА Дарья/Нижний Новгород</t>
+          <t>ВОРОБЬЕВА Дарья</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>БАХТИНА Анна/Нижний Новгород</t>
+          <t>БАХТИНА Анна</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -734,12 +734,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ГЛИВЧУК Анастасия/Нижний Новгород</t>
+          <t>ГЛИВЧУК Анастасия</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ЛЯМКИНА Мария/Нижний Новгород</t>
+          <t>ЛЯМКИНА Мария</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -751,12 +751,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ГЛИВЧУК Анастасия/Нижний Новгород</t>
+          <t>ГЛИВЧУК Анастасия</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ВОРОБЬЕВА Дарья/Нижний Новгород</t>
+          <t>ВОРОБЬЕВА Дарья</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -768,12 +768,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ГЛИВЧУК Анастасия/Нижний Новгород</t>
+          <t>ГЛИВЧУК Анастасия</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ПОНОМАРЕНКО Анна/Нижний Новгород</t>
+          <t>ПОНОМАРЕНКО Анна</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -785,12 +785,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ГЛОТОВА Дарья/Нижний Новгород</t>
+          <t>ГЛОТОВА Дарья</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>КУЗНЕЦОВА Анна/Дзержинск</t>
+          <t>КУЗНЕЦОВА Анна</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -802,12 +802,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ГЛОТОВА Дарья/Нижний Новгород</t>
+          <t>ГЛОТОВА Дарья</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ШУБЕНИНА София/Нижний Новгород</t>
+          <t>ШУБЕНИНА София</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -819,12 +819,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ГРЯЗНОВА Ульяна/Нижний Новгород</t>
+          <t>ГРЯЗНОВА Ульяна</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>БЕЛЯЕВА Валерия/Сергач</t>
+          <t>БЕЛЯЕВА Валерия</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -836,12 +836,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ГУБАНОВА Арина/Нижний Новгород</t>
+          <t>ГУБАНОВА Арина</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ЖБАНОВА Полина/Нижний Новгород</t>
+          <t>ЖБАНОВА Полина</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -853,12 +853,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ГУБАНОВА Арина/Нижний Новгород</t>
+          <t>ГУБАНОВА Арина</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ШУВАЛОВА Мария/Нижний Новгород</t>
+          <t>ШУВАЛОВА Мария</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -870,12 +870,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ГУБАНОВА Арина/Нижний Новгород</t>
+          <t>ГУБАНОВА Арина</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>КОЗЛОВА Карина/Семенов</t>
+          <t>КОЗЛОВА Карина</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -887,12 +887,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ГУБАНОВА Арина/Нижний Новгород</t>
+          <t>ГУБАНОВА Арина</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>АБРАМОВА Анастасия/Семенов</t>
+          <t>АБРАМОВА Анастасия</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -904,12 +904,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ДЕГТЯРЕВА Алина/Нижний Новгород</t>
+          <t>ДЕГТЯРЕВА Алина</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ШУСТОВА Юлия/Н.Новгород</t>
+          <t>ШУСТОВА Юлия</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -921,12 +921,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ДЕГТЯРЕВА Алина/Нижний Новгород</t>
+          <t>ДЕГТЯРЕВА Алина</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ШМИДТ Алена/Нижний Новгород</t>
+          <t>ШМИДТ Алена</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -938,12 +938,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ДЕГТЯРЕВА Алина/Нижний Новгород</t>
+          <t>ДЕГТЯРЕВА Алина</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>РОГАНОВА Виктория/Нижний Новгород</t>
+          <t>РОГАНОВА Виктория</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -955,12 +955,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ДЕГТЯРЕВА Анна/Нижний Новгород</t>
+          <t>ДЕГТЯРЕВА Анна</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ЛЯМКИНА Мария/Нижний Новгород</t>
+          <t>ЛЯМКИНА Мария</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ЕРМОЛАЕВА Ксения/Нижний Новгород</t>
+          <t>ЕРМОЛАЕВА Ксения</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ЗАХАРОВА Арина/Нижний Новгород</t>
+          <t>ЗАХАРОВА Арина</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -989,12 +989,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ЕРМОЛАЕВА Ксения/Нижний Новгород</t>
+          <t>ЕРМОЛАЕВА Ксения</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ЖБАНОВА Полина/Нижний Новгород</t>
+          <t>ЖБАНОВА Полина</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1006,12 +1006,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ЕРМОЛАЕВА Ксения/Нижний Новгород</t>
+          <t>ЕРМОЛАЕВА Ксения</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>КАЗАРИНА Варвара/Нижний Новгород</t>
+          <t>КАЗАРИНА Варвара</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1023,12 +1023,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ЖБАНОВА Полина/Нижний Новгород</t>
+          <t>ЖБАНОВА Полина</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>КЛЕМЕНТЬЕВА Алина/Нижний Новгород</t>
+          <t>КЛЕМЕНТЬЕВА Алина</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1040,12 +1040,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ЖБАНОВА Полина/Нижний Новгород</t>
+          <t>ЖБАНОВА Полина</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ГРЯЗНОВА Ульяна/Нижний Новгород</t>
+          <t>ГРЯЗНОВА Ульяна</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1057,12 +1057,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ЖИХАРЕВА Дарья/Нижний Новгород</t>
+          <t>ЖИХАРЕВА Дарья</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ЛЯМКИНА Мария/Нижний Новгород</t>
+          <t>ЛЯМКИНА Мария</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1074,12 +1074,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ЖИХАРЕВА Дарья/Нижний Новгород</t>
+          <t>ЖИХАРЕВА Дарья</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>КУРИЦЫНА Арина/Сергач</t>
+          <t>КУРИЦЫНА Арина</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1091,12 +1091,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ЗАЙЦЕВА Елизавета/Нижний Новгород</t>
+          <t>ЗАЙЦЕВА Елизавета</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ДЕГТЯРЕВА Алина/Нижний Новгород</t>
+          <t>ДЕГТЯРЕВА Алина</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1108,12 +1108,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ЗАЙЦЕВА Елизавета/Нижний Новгород</t>
+          <t>ЗАЙЦЕВА Елизавета</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ЛАПТЕВА Наталья/Нижний Новгород</t>
+          <t>ЛАПТЕВА Наталья</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1125,12 +1125,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ЗАЙЦЕВА Елизавета/Нижний Новгород</t>
+          <t>ЗАЙЦЕВА Елизавета</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>БУЗИХИНА Варвара/Нижний Новгород</t>
+          <t>БУЗИХИНА Варвара</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1142,12 +1142,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ЗАЙЦЕВА Елизавета/Нижний Новгород</t>
+          <t>ЗАЙЦЕВА Елизавета</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>МИКУЛИНА Лилия/Нижний Новгород</t>
+          <t>МИКУЛИНА Лилия</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1159,12 +1159,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ЗАХАРОВА Арина/Нижний Новгород</t>
+          <t>ЗАХАРОВА Арина</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>КЛЕМЕНТЬЕВА Алина/Нижний Новгород</t>
+          <t>КЛЕМЕНТЬЕВА Алина</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1176,12 +1176,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ЗАХАРОВА Арина/Нижний Новгород</t>
+          <t>ЗАХАРОВА Арина</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>БЕЛЯЕВА Валерия/Сергач</t>
+          <t>БЕЛЯЕВА Валерия</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1193,12 +1193,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>КАЗАРИНА Варвара/Нижний Новгород</t>
+          <t>КАЗАРИНА Варвара</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ЧЕТВЕРТАКОВА Виктория/Нижний Новгород</t>
+          <t>ЧЕТВЕРТАКОВА Виктория</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1210,12 +1210,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>КАЗАРИНА Варвара/Нижний Новгород</t>
+          <t>КАЗАРИНА Варвара</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ГРЯЗНОВА Ульяна/Нижний Новгород</t>
+          <t>ГРЯЗНОВА Ульяна</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1227,12 +1227,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>КЛЕМЕНТЬЕВА Алина/Нижний Новгород</t>
+          <t>КЛЕМЕНТЬЕВА Алина</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ЧЕТВЕРТАКОВА Виктория/Нижний Новгород</t>
+          <t>ЧЕТВЕРТАКОВА Виктория</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1244,12 +1244,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>КОЗЛОВА Карина/Семенов</t>
+          <t>КОЗЛОВА Карина</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ЕРМОЛАЕВА Ксения/Нижний Новгород</t>
+          <t>ЕРМОЛАЕВА Ксения</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1261,12 +1261,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>КОЗЛОВА Карина/Семенов</t>
+          <t>КОЗЛОВА Карина</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>КУЧИНА Александра/Нижний Новгород</t>
+          <t>КУЧИНА Александра</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1278,12 +1278,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>КОЗЛОВА Карина/Семенов</t>
+          <t>КОЗЛОВА Карина</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ПОЗДНЯКОВА Олеся/Дзержинск</t>
+          <t>ПОЗДНЯКОВА Олеся</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1295,12 +1295,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>КОЛОСОВА Мария/Нижний Новгород</t>
+          <t>КОЛОСОВА Мария</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>КАЗАРИНА Варвара/Нижний Новгород</t>
+          <t>КАЗАРИНА Варвара</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1312,12 +1312,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>КОЛОСОВА Мария/Нижний Новгород</t>
+          <t>КОЛОСОВА Мария</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ЕРМОЛАЕВА Ксения/Нижний Новгород</t>
+          <t>ЕРМОЛАЕВА Ксения</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1329,12 +1329,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>КОЛОСОВА Мария/Нижний Новгород</t>
+          <t>КОЛОСОВА Мария</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>КУЧИНА Александра/Нижний Новгород</t>
+          <t>КУЧИНА Александра</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1346,12 +1346,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>КУЗНЕЦОВА Анна/Дзержинск</t>
+          <t>КУЗНЕЦОВА Анна</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>САЛМОВА Полина/Нижний Новгород</t>
+          <t>САЛМОВА Полина</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1363,12 +1363,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>КУРИЦЫНА Арина/Сергач</t>
+          <t>КУРИЦЫНА Арина</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ДЕГТЯРЕВА Анна/Нижний Новгород</t>
+          <t>ДЕГТЯРЕВА Анна</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1380,12 +1380,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>КУЧИНА Александра/Нижний Новгород</t>
+          <t>КУЧИНА Александра</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ЗАХАРОВА Арина/Нижний Новгород</t>
+          <t>ЗАХАРОВА Арина</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1397,12 +1397,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>КУЧИНА Александра/Нижний Новгород</t>
+          <t>КУЧИНА Александра</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>КАЗАРИНА Варвара/Нижний Новгород</t>
+          <t>КАЗАРИНА Варвара</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1414,12 +1414,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ЛАПТЕВА Наталья/Нижний Новгород</t>
+          <t>ЛАПТЕВА Наталья</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ШУСТОВА Юлия/Н.Новгород</t>
+          <t>ШУСТОВА Юлия</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1431,12 +1431,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ЛАПТЕВА Наталья/Нижний Новгород</t>
+          <t>ЛАПТЕВА Наталья</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>МАРКОВА Анна/Нижний Новгород</t>
+          <t>МАРКОВА Анна</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1448,12 +1448,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ЛАПТЕВА Наталья/Нижний Новгород</t>
+          <t>ЛАПТЕВА Наталья</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ГЛОТОВА Дарья/Нижний Новгород</t>
+          <t>ГЛОТОВА Дарья</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1465,12 +1465,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>МАЛКОВА Мария/Нижний Новгород</t>
+          <t>МАЛКОВА Мария</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ВОРОБЬЕВА Дарья/Нижний Новгород</t>
+          <t>ВОРОБЬЕВА Дарья</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1482,12 +1482,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>МАЛКОВА Мария/Нижний Новгород</t>
+          <t>МАЛКОВА Мария</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>БОРИСОВА Екатерина/Нижний Новгород</t>
+          <t>БОРИСОВА Екатерина</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1499,12 +1499,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>МАРКОВА Анна/Нижний Новгород</t>
+          <t>МАРКОВА Анна</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ШМИДТ Алена/Нижний Новгород</t>
+          <t>ШМИДТ Алена</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1516,12 +1516,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>МАРКОВА Анна/Нижний Новгород</t>
+          <t>МАРКОВА Анна</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ШУБЕНИНА София/Нижний Новгород</t>
+          <t>ШУБЕНИНА София</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1533,12 +1533,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>МАСЛОВА Дана/Нижний Новгород</t>
+          <t>МАСЛОВА Дана</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>РОГАНОВА Виктория/Нижний Новгород</t>
+          <t>РОГАНОВА Виктория</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1550,12 +1550,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>МАСЛОВА Дана/Нижний Новгород</t>
+          <t>МАСЛОВА Дана</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ГЛОТОВА Дарья/Нижний Новгород</t>
+          <t>ГЛОТОВА Дарья</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1567,12 +1567,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>МИКУЛИНА Лилия/Нижний Новгород</t>
+          <t>МИКУЛИНА Лилия</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>БОГОМОЛОВА Любовь/Нижний Новгород</t>
+          <t>БОГОМОЛОВА Любовь</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1584,12 +1584,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>МИКУЛИНА Лилия/Нижний Новгород</t>
+          <t>МИКУЛИНА Лилия</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ШУБЕНИНА София/Нижний Новгород</t>
+          <t>ШУБЕНИНА София</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1601,12 +1601,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>МИКУЛИНА Лилия/Нижний Новгород</t>
+          <t>МИКУЛИНА Лилия</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>МАСЛОВА Дана/Нижний Новгород</t>
+          <t>МАСЛОВА Дана</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1618,12 +1618,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ОСТАПЕНКО Александра/Нижний Новгород</t>
+          <t>ОСТАПЕНКО Александра</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>КУРИЦЫНА Арина/Сергач</t>
+          <t>КУРИЦЫНА Арина</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1635,12 +1635,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ОСТАПЕНКО Александра/Нижний Новгород</t>
+          <t>ОСТАПЕНКО Александра</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ВАКИНА Мария/Нижний Новгород</t>
+          <t>ВАКИНА Мария</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1652,12 +1652,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ОСТАПЕНКО Александра/Нижний Новгород</t>
+          <t>ОСТАПЕНКО Александра</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>БОРИСОВА Екатерина/Нижний Новгород</t>
+          <t>БОРИСОВА Екатерина</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1669,12 +1669,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ПОЗДНЯКОВА Олеся/Дзержинск</t>
+          <t>ПОЗДНЯКОВА Олеся</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ГРЯЗНОВА Ульяна/Нижний Новгород</t>
+          <t>ГРЯЗНОВА Ульяна</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1686,12 +1686,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ПОЗДНЯКОВА Олеся/Дзержинск</t>
+          <t>ПОЗДНЯКОВА Олеся</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ЖБАНОВА Полина/Нижний Новгород</t>
+          <t>ЖБАНОВА Полина</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1703,12 +1703,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ПОЗДНЯКОВА Олеся/Дзержинск</t>
+          <t>ПОЗДНЯКОВА Олеся</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>КОЛОСОВА Мария/Нижний Новгород</t>
+          <t>КОЛОСОВА Мария</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1720,12 +1720,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ПОЛУЭКТОВА Маргарита/Дзержинск</t>
+          <t>ПОЛУЭКТОВА Маргарита</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ПОНОМАРЕНКО Анна/Нижний Новгород</t>
+          <t>ПОНОМАРЕНКО Анна</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1737,12 +1737,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ПОЛУЭКТОВА Маргарита/Дзержинск</t>
+          <t>ПОЛУЭКТОВА Маргарита</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ВАКИНА Мария/Нижний Новгород</t>
+          <t>ВАКИНА Мария</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1754,12 +1754,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ПОЛУЭКТОВА Маргарита/Дзержинск</t>
+          <t>ПОЛУЭКТОВА Маргарита</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>МАЛКОВА Мария/Нижний Новгород</t>
+          <t>МАЛКОВА Мария</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1771,12 +1771,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ПОНОМАРЕНКО Анна/Нижний Новгород</t>
+          <t>ПОНОМАРЕНКО Анна</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ДЕГТЯРЕВА Анна/Нижний Новгород</t>
+          <t>ДЕГТЯРЕВА Анна</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1788,12 +1788,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ПОНОМАРЕНКО Анна/Нижний Новгород</t>
+          <t>ПОНОМАРЕНКО Анна</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>БАХТИНА Анна/Нижний Новгород</t>
+          <t>БАХТИНА Анна</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1805,12 +1805,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>РОГАНОВА Виктория/Нижний Новгород</t>
+          <t>РОГАНОВА Виктория</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>КУЗНЕЦОВА Анна/Дзержинск</t>
+          <t>КУЗНЕЦОВА Анна</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1822,12 +1822,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>РОГАНОВА Виктория/Нижний Новгород</t>
+          <t>РОГАНОВА Виктория</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>БОГОМОЛОВА Любовь/Нижний Новгород</t>
+          <t>БОГОМОЛОВА Любовь</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1839,12 +1839,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ХРУЛЕВА Ксения/Нижний Новгород</t>
+          <t>ХРУЛЕВА Ксения</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>БЕЛЯЕВА Валерия/Сергач</t>
+          <t>БЕЛЯЕВА Валерия</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1856,12 +1856,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ХРУЛЕВА Ксения/Нижний Новгород</t>
+          <t>ХРУЛЕВА Ксения</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ПОЗДНЯКОВА Олеся/Дзержинск</t>
+          <t>ПОЗДНЯКОВА Олеся</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1873,12 +1873,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ХРУЛЕВА Ксения/Нижний Новгород</t>
+          <t>ХРУЛЕВА Ксения</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ПОЗДНЯКОВА Олеся/Дзержинск</t>
+          <t>ПОЗДНЯКОВА Олеся</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1890,12 +1890,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ЦИБИРЕВА Ксения/Нижний Новгород</t>
+          <t>ЦИБИРЕВА Ксения</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>БАХТИНА Анна/Нижний Новгород</t>
+          <t>БАХТИНА Анна</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1907,12 +1907,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ЦИБИРЕВА Ксения/Нижний Новгород</t>
+          <t>ЦИБИРЕВА Ксения</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ОСТАПЕНКО Александра/Нижний Новгород</t>
+          <t>ОСТАПЕНКО Александра</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1924,12 +1924,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ЦИБИРЕВА Ксения/Нижний Новгород</t>
+          <t>ЦИБИРЕВА Ксения</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ПОЛУЭКТОВА Маргарита/Дзержинск</t>
+          <t>ПОЛУЭКТОВА Маргарита</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1941,12 +1941,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ЧАЙКА Дарья/Выкса</t>
+          <t>ЧАЙКА Дарья</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ГЛИВЧУК Анастасия/Нижний Новгород</t>
+          <t>ГЛИВЧУК Анастасия</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1958,12 +1958,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ЧАЙКА Дарья/Выкса</t>
+          <t>ЧАЙКА Дарья</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>БУРОВА Маргарита/Нижний Новгород</t>
+          <t>БУРОВА Маргарита</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1975,12 +1975,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ЧАЙКА Дарья/Выкса</t>
+          <t>ЧАЙКА Дарья</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>МАЛКОВА Мария/Нижний Новгород</t>
+          <t>МАЛКОВА Мария</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1992,12 +1992,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ЧАЙКА Дарья/Выкса</t>
+          <t>ЧАЙКА Дарья</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ЦИБИРЕВА Ксения/Нижний Новгород</t>
+          <t>ЦИБИРЕВА Ксения</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2009,12 +2009,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ШМИДТ Алена/Нижний Новгород</t>
+          <t>ШМИДТ Алена</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ШУСТОВА Анастасия/Нижний Новгород</t>
+          <t>ШУСТОВА Анастасия</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2026,12 +2026,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ШУБЕНИНА София/Нижний Новгород</t>
+          <t>ШУБЕНИНА София</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>САЛМОВА Полина/Нижний Новгород</t>
+          <t>САЛМОВА Полина</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2043,12 +2043,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ШУВАЛОВА Мария/Нижний Новгород</t>
+          <t>ШУВАЛОВА Мария</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>КЛЕМЕНТЬЕВА Алина/Нижний Новгород</t>
+          <t>КЛЕМЕНТЬЕВА Алина</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2060,12 +2060,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ШУВАЛОВА Мария/Нижний Новгород</t>
+          <t>ШУВАЛОВА Мария</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ГРЯЗНОВА Ульяна/Нижний Новгород</t>
+          <t>ГРЯЗНОВА Ульяна</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2077,12 +2077,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ШУВАЛОВА Мария/Нижний Новгород</t>
+          <t>ШУВАЛОВА Мария</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>КУЧИНА Александра/Нижний Новгород</t>
+          <t>КУЧИНА Александра</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2094,12 +2094,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ШУВАЛОВА Мария/Нижний Новгород</t>
+          <t>ШУВАЛОВА Мария</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ХРУЛЕВА Ксения/Нижний Новгород</t>
+          <t>ХРУЛЕВА Ксения</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2111,12 +2111,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ШУСТОВА Анастасия/Нижний Новгород</t>
+          <t>ШУСТОВА Анастасия</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>САЛМОВА Полина/Нижний Новгород</t>
+          <t>САЛМОВА Полина</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2128,12 +2128,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ШУСТОВА Юлия/Н.Новгород</t>
+          <t>ШУСТОВА Юлия</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ШУСТОВА Анастасия/Нижний Новгород</t>
+          <t>ШУСТОВА Анастасия</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2145,12 +2145,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ШУСТОВА Юлия/Н.Новгород</t>
+          <t>ШУСТОВА Юлия</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>КУЗНЕЦОВА Анна/Дзержинск</t>
+          <t>КУЗНЕЦОВА Анна</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
